--- a/output/kossutha/2021/sheets/year_2021.xlsx
+++ b/output/kossutha/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.38709677419355</v>
+        <v>36.42276628382687</v>
       </c>
       <c r="C2" t="n">
-        <v>6.019354838709678</v>
+        <v>37.7247903007762</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.53571428571428</v>
+        <v>36.57796400845755</v>
       </c>
       <c r="C3" t="n">
-        <v>8.839285714285715</v>
+        <v>34.86928369391884</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.78064516129032</v>
+        <v>36.5509295668563</v>
       </c>
       <c r="C4" t="n">
-        <v>16.61612903225807</v>
+        <v>34.34697807885129</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.97333333333334</v>
+        <v>44.58433919318529</v>
       </c>
       <c r="C5" t="n">
-        <v>20.15666666666666</v>
+        <v>39.69171245342367</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.98064516129033</v>
+        <v>37.17477829393518</v>
       </c>
       <c r="C6" t="n">
-        <v>16.32258064516129</v>
+        <v>36.87022447447988</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.45</v>
+        <v>39.52034973922027</v>
       </c>
       <c r="C7" t="n">
-        <v>17.85333333333333</v>
+        <v>36.98423935308934</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.34193548387097</v>
+        <v>39.64789978016562</v>
       </c>
       <c r="C8" t="n">
-        <v>9.541935483870969</v>
+        <v>37.58748572481033</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.91935483870968</v>
+        <v>39.20177239270788</v>
       </c>
       <c r="C9" t="n">
-        <v>16.63870967741936</v>
+        <v>37.28780775032488</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.61</v>
+        <v>37.91969675110488</v>
       </c>
       <c r="C10" t="n">
-        <v>15.46333333333333</v>
+        <v>36.19594347343443</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.36451612903226</v>
+        <v>40.27765080619453</v>
       </c>
       <c r="C11" t="n">
-        <v>8.748387096774195</v>
+        <v>41.66660010452598</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.01333333333333</v>
+        <v>38.15989611926145</v>
       </c>
       <c r="C12" t="n">
-        <v>14.74333333333333</v>
+        <v>36.6442632476798</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.1</v>
+        <v>39.18776525592964</v>
       </c>
       <c r="C13" t="n">
-        <v>16.45483870967742</v>
+        <v>38.07032294115369</v>
       </c>
     </row>
   </sheetData>
